--- a/biology/Botanique/Coix_aquatica/Coix_aquatica.xlsx
+++ b/biology/Botanique/Coix_aquatica/Coix_aquatica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coix aquatica est une espèce de plantes monocotylédones  de la famille des Poaceae (Graminées), sous-famille des Panicoideae, originaire d'Asie tropicale.
 </t>
@@ -511,17 +523,17 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coix aquatica est une plante aquatique herbacée, annuelle (selon GrassBase[2]) ou vivace (selon Flora of China[3]), aux tiges (chaumes spongieuses, rampantes ou flottantes, de 60 à 150 cm de long, voire 30 mètres de long[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coix aquatica est une plante aquatique herbacée, annuelle (selon GrassBase) ou vivace (selon Flora of China), aux tiges (chaumes spongieuses, rampantes ou flottantes, de 60 à 150 cm de long, voire 30 mètres de long.
 Les feuilles ont un limbe linéaire ou lancéolé de 8 à 45 cm de long sur 8 à 25 mm de large, à la base cordée et avec une ligule membraneuse d'un millimètre de long.
 C'est une plante monoïque dont l'inflorescence est une panicule composée de racèmes mâle et femelle, sous-tendue par une spathéole commune. Le racème mâle est exsert tandis que le racème femelle est enveloppé. La désarticulation concerne l'inflorescence entière qui constitue l'unité de dissémination.
-Les épillets sont groupés par trois, un épillet fertile accompagné de deux épillets stériles dans le racème femelle, 2 à 3 épillets mâles sessiles ou pédicellés sur le racème mâle. Les épillets sont sous-tendus par deux glumes dissemblables[2].
+Les épillets sont groupés par trois, un épillet fertile accompagné de deux épillets stériles dans le racème femelle, 2 à 3 épillets mâles sessiles ou pédicellés sur le racème mâle. Les épillets sont sous-tendus par deux glumes dissemblables.
 Les épillets fertiles, ovales, comprimés dorsalement, de 8 à 9 mm de long, comprennent un fleuron basal stérile et un fleuron fertile sans extension du rachillet
 Les fleurons femelles n'ont pas de lodicules tandis que les fleurons mâles en comptent deux.
-Le fruit est un caryopse au péricarpe adhérent à la graine[2].
-Cytologie
-Le nombre chromosomique de base est x=5, et l'espèce est généralement diploïde (2n=2x=10) mais on rencontre des formes tétraploïdes (2n=4x=20) et octoploïdes (2n=8x=40)[4].
+Le fruit est un caryopse au péricarpe adhérent à la graine.
 </t>
         </is>
       </c>
@@ -547,14 +559,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Distribution et habitat</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'aire de répartition de Coix aquatica s'étend en Asie tropicale : Chine (Guangdong, Guangxi, Yunnan), sous-continent indien (Bangladesh, Bhoutan, Inde, Sri Lanka), Malaisie, Myanmar, Thaïlande, Vietnam[3].
-La plante se rencontre dans les lacs, cours d'eau, bordures marécageuses, en eau libre, entre  500 et 1800 mètres d'altitude
-[3].
+          <t>Cytologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nombre chromosomique de base est x=5, et l'espèce est généralement diploïde (2n=2x=10) mais on rencontre des formes tétraploïdes (2n=4x=20) et octoploïdes (2n=8x=40).
 </t>
         </is>
       </c>
@@ -580,12 +596,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition de Coix aquatica s'étend en Asie tropicale : Chine (Guangdong, Guangxi, Yunnan), sous-continent indien (Bangladesh, Bhoutan, Inde, Sri Lanka), Malaisie, Myanmar, Thaïlande, Vietnam.
+La plante se rencontre dans les lacs, cours d'eau, bordures marécageuses, en eau libre, entre  500 et 1800 mètres d'altitude
+.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Coix_aquatica</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coix_aquatica</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (29 octobre 2017)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (29 octobre 2017) :
 Coix gigantea J.Koenig ex Roxb., nom. illeg.
 Coix gigantea subsp. aquatica (Roxb.) Bhattacharya
 Coix gigantea var. aquatica (Roxb.) Watt
